--- a/addons/luban_godot/template_folder/#Entity.xlsx
+++ b/addons/luban_godot/template_folder/#Entity.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\GodotLearning\GameTemplate\_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Project\GodotTemplate\_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDFDB31-54AB-4C81-AFBF-232C6D150448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8072BD83-0FE2-4CF1-828C-D732F48032BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12900" yWindow="4543" windowWidth="24694" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="character" sheetId="3" r:id="rId1"/>
-    <sheet name="enemy" sheetId="2" r:id="rId2"/>
-    <sheet name="entity_const" sheetId="4" r:id="rId3"/>
+    <sheet name="Character" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -54,10 +52,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>怪物id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -74,18 +68,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>怪物图像</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ai_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>最大hp</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -114,50 +100,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>##column#var</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>##type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAX_DEFEND</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大防御值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体数值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int#ref=Card.TbCardPile</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽灵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>仙人掌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tile_0121</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tile_0108</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>战士</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -179,6 +121,10 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int#ref=TbCardPile</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -186,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,16 +171,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,18 +198,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,7 +235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -340,27 +266,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -649,20 +554,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424AF7B5-D485-486F-9BAE-EA4500C516F5}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="5" max="5" width="32.5" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="16.25" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.2109375" customWidth="1"/>
+    <col min="9" max="9" width="24.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,19 +581,19 @@
         <v>6</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -706,7 +611,7 @@
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
     </row>
-    <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -720,19 +625,19 @@
         <v>4</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -750,33 +655,33 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -794,275 +699,30 @@
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
     </row>
-    <row r="4" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="18">
+    <row r="4" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="11">
         <v>101</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="18">
+      <c r="C4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="18">
+      <c r="D4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="11">
+        <v>20</v>
+      </c>
+      <c r="G4" s="11">
         <v>0</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="11">
         <v>3</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="11">
         <v>10001</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DD396B-236A-4144-A214-770B4D6F07E9}">
-  <dimension ref="A1:X5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.08203125" customWidth="1"/>
-    <col min="4" max="4" width="51.5" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-    </row>
-    <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-    </row>
-    <row r="3" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-    </row>
-    <row r="4" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="18">
-        <v>201</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="18">
-        <v>111111</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18">
-        <v>202</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="18">
-        <v>222222</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="18">
-        <v>1</v>
-      </c>
-      <c r="G5" s="18">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435F847E-FF76-4A02-8606-6AD2BA369E3C}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.4140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="7.4140625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="14" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="13"/>
-    <col min="5" max="16384" width="8.6640625" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="13">
-        <v>999</v>
       </c>
     </row>
   </sheetData>
